--- a/data/sn_data_mod.xlsx
+++ b/data/sn_data_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Seans Mac Pro/KUMED/의예과/학생연구/Nerve-Morphology-2.0/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6192556-A9E6-9B4D-B851-78F7CC454A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E692F33-CF14-AA49-A3A7-835FF3B134DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{27F2F9DC-3BDD-AF4C-A76A-EF19E3CFD34C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="65">
   <si>
     <t>23-21R</t>
   </si>
@@ -76,148 +76,161 @@
     <t>23-25R</t>
   </si>
   <si>
+    <t>cp_brch</t>
+  </si>
+  <si>
+    <t>mid12_brch</t>
+  </si>
+  <si>
+    <t>mid10_brch</t>
+  </si>
+  <si>
+    <t>mid_brch</t>
+  </si>
+  <si>
+    <t>tip_brch</t>
+  </si>
+  <si>
+    <t>leg_length</t>
+  </si>
+  <si>
+    <t>width_mm</t>
+  </si>
+  <si>
+    <t>tip_mid</t>
+  </si>
+  <si>
+    <t>tip_sn1</t>
+  </si>
+  <si>
+    <t>tip_sn2</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Nmb</t>
+  </si>
+  <si>
+    <t>tip_sn3</t>
+  </si>
+  <si>
+    <t>tip_sn4</t>
+  </si>
+  <si>
+    <t>tip_sn_tk1</t>
+  </si>
+  <si>
+    <t>tip_sn_tk2</t>
+  </si>
+  <si>
+    <t>tip_sn_tk3</t>
+  </si>
+  <si>
+    <t>tip_sn_tk4</t>
+  </si>
+  <si>
+    <t>mid_sn1</t>
+  </si>
+  <si>
+    <t>mid_sn2</t>
+  </si>
+  <si>
+    <t>mid_sn3</t>
+  </si>
+  <si>
+    <t>mid_sn4</t>
+  </si>
+  <si>
+    <t>mid_sn_tk_1</t>
+  </si>
+  <si>
+    <t>mid_sn_tk_2</t>
+  </si>
+  <si>
+    <t>mid_sn_tk_3</t>
+  </si>
+  <si>
+    <t>mid_sn_tk_4</t>
+  </si>
+  <si>
+    <t>mid10_sn1</t>
+  </si>
+  <si>
+    <t>mid10_sn2</t>
+  </si>
+  <si>
+    <t>mid10_sn3</t>
+  </si>
+  <si>
+    <t>mid10_sn4</t>
+  </si>
+  <si>
+    <t>mid10_sn_tk1</t>
+  </si>
+  <si>
+    <t>mid10_sn_tk2</t>
+  </si>
+  <si>
+    <t>mid10_sn_tk3</t>
+  </si>
+  <si>
+    <t>mid10_sn_tk4</t>
+  </si>
+  <si>
+    <t>mid12_sn1</t>
+  </si>
+  <si>
+    <t>mid12_sn2</t>
+  </si>
+  <si>
+    <t>mid12_sn3</t>
+  </si>
+  <si>
+    <t>mid12_sn4</t>
+  </si>
+  <si>
+    <t>mid12_sn_tk1</t>
+  </si>
+  <si>
+    <t>mid12_sn_tk2</t>
+  </si>
+  <si>
+    <t>mid12_sn_tk3</t>
+  </si>
+  <si>
+    <t>mid12_sn_tk4</t>
+  </si>
+  <si>
+    <t>tip_bp</t>
+  </si>
+  <si>
+    <t>tip_bp2</t>
+  </si>
+  <si>
+    <t>tip_cp</t>
+  </si>
+  <si>
+    <t>sn_sfn_ana</t>
+  </si>
+  <si>
+    <t>24-10R</t>
+  </si>
+  <si>
+    <t>24-10L</t>
+  </si>
+  <si>
+    <t>23-49R</t>
+  </si>
+  <si>
+    <t>23-49L</t>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>23-25L</t>
-  </si>
-  <si>
-    <t>cp_brch</t>
-  </si>
-  <si>
-    <t>mid12_brch</t>
-  </si>
-  <si>
-    <t>mid10_brch</t>
-  </si>
-  <si>
-    <t>mid_brch</t>
-  </si>
-  <si>
-    <t>tip_brch</t>
-  </si>
-  <si>
-    <t>leg_length</t>
-  </si>
-  <si>
-    <t>width_mm</t>
-  </si>
-  <si>
-    <t>tip_mid</t>
-  </si>
-  <si>
-    <t>tip_sn1</t>
-  </si>
-  <si>
-    <t>tip_sn2</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>Nmb</t>
-  </si>
-  <si>
-    <t>tip_sn3</t>
-  </si>
-  <si>
-    <t>tip_sn4</t>
-  </si>
-  <si>
-    <t>tip_sn_tk1</t>
-  </si>
-  <si>
-    <t>tip_sn_tk2</t>
-  </si>
-  <si>
-    <t>tip_sn_tk3</t>
-  </si>
-  <si>
-    <t>tip_sn_tk4</t>
-  </si>
-  <si>
-    <t>mid_sn1</t>
-  </si>
-  <si>
-    <t>mid_sn2</t>
-  </si>
-  <si>
-    <t>mid_sn3</t>
-  </si>
-  <si>
-    <t>mid_sn4</t>
-  </si>
-  <si>
-    <t>mid_sn_tk_1</t>
-  </si>
-  <si>
-    <t>mid_sn_tk_2</t>
-  </si>
-  <si>
-    <t>mid_sn_tk_3</t>
-  </si>
-  <si>
-    <t>mid_sn_tk_4</t>
-  </si>
-  <si>
-    <t>mid10_sn1</t>
-  </si>
-  <si>
-    <t>mid10_sn2</t>
-  </si>
-  <si>
-    <t>mid10_sn3</t>
-  </si>
-  <si>
-    <t>mid10_sn4</t>
-  </si>
-  <si>
-    <t>mid10_sn_tk1</t>
-  </si>
-  <si>
-    <t>mid10_sn_tk2</t>
-  </si>
-  <si>
-    <t>mid10_sn_tk3</t>
-  </si>
-  <si>
-    <t>mid10_sn_tk4</t>
-  </si>
-  <si>
-    <t>mid12_sn1</t>
-  </si>
-  <si>
-    <t>mid12_sn2</t>
-  </si>
-  <si>
-    <t>mid12_sn3</t>
-  </si>
-  <si>
-    <t>mid12_sn4</t>
-  </si>
-  <si>
-    <t>mid12_sn_tk1</t>
-  </si>
-  <si>
-    <t>mid12_sn_tk2</t>
-  </si>
-  <si>
-    <t>mid12_sn_tk3</t>
-  </si>
-  <si>
-    <t>mid12_sn_tk4</t>
-  </si>
-  <si>
-    <t>tip_bp</t>
-  </si>
-  <si>
-    <t>tip_bp2</t>
-  </si>
-  <si>
-    <t>tip_cp</t>
-  </si>
-  <si>
-    <t>sn_sfn_ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -623,15 +636,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5F2582-A497-3841-B8DF-302C6CFF8FF2}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C40" sqref="A1:P45"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -673,153 +687,201 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -863,10 +925,22 @@
       <c r="O5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -910,10 +984,22 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>33.299999999999997</v>
@@ -957,10 +1043,22 @@
       <c r="O7" s="2">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>39</v>
+      </c>
+      <c r="R7" s="2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="S7" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>35.299999999999997</v>
@@ -1004,10 +1102,22 @@
       <c r="O8" s="2">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="R8" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="S8" s="2">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>17.2</v>
@@ -1051,13 +1161,22 @@
       <c r="O9" s="2">
         <v>18</v>
       </c>
-      <c r="P9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>18.2</v>
+      </c>
+      <c r="Q9">
+        <v>22.6</v>
+      </c>
+      <c r="R9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="S9">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>38.299999999999997</v>
@@ -1101,10 +1220,22 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="R10" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="S10" s="2">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>32.5</v>
@@ -1131,121 +1262,157 @@
         <v>10.1</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="N11" s="2">
         <v>3.2</v>
       </c>
       <c r="O11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>12</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" s="2">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
         <v>4.8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>1.1000000000000001</v>
@@ -1289,10 +1456,22 @@
       <c r="O14" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
         <v>1.2</v>
@@ -1319,121 +1498,157 @@
         <v>1.2</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="N15" s="2">
         <v>0.5</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>24</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>1.9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="2" t="s">
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>5.2</v>
@@ -1477,10 +1692,22 @@
       <c r="O18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -1507,10 +1734,10 @@
         <v>-20.100000000000001</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="2">
         <v>-1.5</v>
@@ -1519,21 +1746,33 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O19" s="2">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>-2</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="2">
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2">
         <v>-16.5</v>
@@ -1542,45 +1781,57 @@
         <v>-20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P20" s="2">
+        <v>-5</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20" s="2">
+        <v>-21.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2">
         <v>-23.1</v>
@@ -1589,39 +1840,51 @@
         <v>-20.2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21" s="2">
+        <v>-26.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4">
         <v>1.2</v>
@@ -1665,10 +1928,22 @@
       <c r="O22" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="R22" s="2">
+        <v>2</v>
+      </c>
+      <c r="S22" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="4">
         <v>2</v>
@@ -1695,10 +1970,10 @@
         <v>1.4</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -1707,21 +1982,33 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O23" s="2">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>1.8</v>
@@ -1730,45 +2017,57 @@
         <v>1.2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2">
         <v>1.3</v>
@@ -1777,39 +2076,51 @@
         <v>1.2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2">
         <v>-11.8</v>
@@ -1851,153 +2162,201 @@
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>0.8</v>
+      </c>
+      <c r="P26" s="2">
+        <v>-14.6</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>-12.6</v>
+      </c>
+      <c r="R26" s="2">
+        <v>-3.8</v>
+      </c>
+      <c r="S26" s="2">
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2">
         <v>-3.4</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P27" s="2">
+        <v>-2.8</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>-7.8</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B30" s="2">
         <v>1.6</v>
@@ -2041,151 +2400,199 @@
       <c r="O30" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="2">
         <v>0.8</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P31" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B34" s="2">
         <v>-4.2</v>
@@ -2227,153 +2634,201 @@
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>2.1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>-8.4</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="2">
         <v>-1.2</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B38" s="2">
         <v>1.5</v>
@@ -2417,151 +2872,199 @@
       <c r="O38" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>2</v>
+      </c>
+      <c r="S38" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="B42" s="2">
         <v>1.9</v>
@@ -2588,10 +3091,10 @@
         <v>6.8</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L42" s="2">
         <v>8.6</v>
@@ -2605,57 +3108,81 @@
       <c r="O42" s="2">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R42" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="S42" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H43" s="3">
         <v>9.4</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P43" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2">
         <v>15.7</v>
@@ -2699,10 +3226,22 @@
       <c r="O44" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44">
+        <v>14</v>
+      </c>
+      <c r="S44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -2744,6 +3283,18 @@
         <v>0</v>
       </c>
       <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
         <v>0</v>
       </c>
     </row>
